--- a/tp1/segunda_estimacion.xlsx
+++ b/tp1/segunda_estimacion.xlsx
@@ -90,716 +90,702 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>312.6621240370247</v>
+        <v>300.293684885452</v>
       </c>
       <c r="B2" t="n">
-        <v>0.11621393295207143</v>
+        <v>0.3233190638951435</v>
       </c>
       <c r="C2" t="n">
-        <v>1.7796284509926676</v>
+        <v>1.6624557613255508</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.0241734193181598</v>
+        <v>-0.9675974397886626</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>300.293684885452</v>
+        <v>311.39812221331056</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3233190638951435</v>
+        <v>0.28594723034999286</v>
       </c>
       <c r="C3" t="n">
-        <v>1.6624557613255508</v>
+        <v>1.751289035705239</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.9675974397886626</v>
+        <v>-1.1678077852183226</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>316.9425467382891</v>
+        <v>292.7948545735774</v>
       </c>
       <c r="B4" t="n">
-        <v>0.18994638676780898</v>
+        <v>1.35161675393368</v>
       </c>
       <c r="C4" t="n">
-        <v>1.6848738356263764</v>
+        <v>0.8701791785717177</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.2099141262514572</v>
+        <v>-0.9814426157054813</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>295.5860775974697</v>
+        <v>305.21381224264815</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2752142170491261</v>
+        <v>-0.26340534161015267</v>
       </c>
       <c r="C5" t="n">
-        <v>1.4868076171388636</v>
+        <v>2.187970023560447</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.7656614547570998</v>
+        <v>-1.0611082791547273</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>291.448993716902</v>
+        <v>302.1727294170017</v>
       </c>
       <c r="B6" t="n">
-        <v>1.048550653750684</v>
+        <v>0.36244008345927703</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9384400827797792</v>
+        <v>1.5811275234180766</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.8354457035977869</v>
+        <v>-0.9860913046725124</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>302.5011978139768</v>
+        <v>277.5618553587014</v>
       </c>
       <c r="B7" t="n">
-        <v>1.2429933751484035</v>
+        <v>1.2319734958671373</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5140353713351179</v>
+        <v>1.0509542628406952</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.9556904583592841</v>
+        <v>-0.9236021359294359</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>292.1996334200827</v>
+        <v>314.1837475224481</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.12173438877560201</v>
+        <v>1.3821102002370558</v>
       </c>
       <c r="C8" t="n">
-        <v>2.020683034592643</v>
+        <v>0.521690722927528</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.8794495610756878</v>
+        <v>-1.212873560849373</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>291.6710288694057</v>
+        <v>288.0821129744738</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.6397046963658842</v>
+        <v>1.502453540674542</v>
       </c>
       <c r="C9" t="n">
-        <v>2.705828456749212</v>
+        <v>0.5025749456157329</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.9725517311330035</v>
+        <v>-0.8781432293536396</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>298.60495174497976</v>
+        <v>297.6583661286389</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9576629846344038</v>
+        <v>0.3170959006808469</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0382735506241954</v>
+        <v>1.6689177448069124</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.9251666765831583</v>
+        <v>-0.9378987098057087</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>296.0724608438642</v>
+        <v>316.9425467382891</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9007938691605578</v>
+        <v>0.18994638676780898</v>
       </c>
       <c r="C11" t="n">
-        <v>1.222719683453669</v>
+        <v>1.6848738356263764</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.9521487204857259</v>
+        <v>-1.2099141262514572</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>287.5357953203879</v>
+        <v>295.5860775974697</v>
       </c>
       <c r="B12" t="n">
-        <v>1.0067946903062293</v>
+        <v>0.2752142170491261</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0928569760031672</v>
+        <v>1.4868076171388636</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.9520803148237666</v>
+        <v>-0.7656614547570998</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>293.6188153857888</v>
+        <v>291.448993716902</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6636629358143716</v>
+        <v>1.048550653750684</v>
       </c>
       <c r="C13" t="n">
-        <v>1.3498694684916899</v>
+        <v>0.9384400827797792</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.0298408584964194</v>
+        <v>-0.8354457035977869</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>311.39812221331056</v>
+        <v>302.5011978139768</v>
       </c>
       <c r="B14" t="n">
-        <v>0.28594723034999286</v>
+        <v>1.2429933751484035</v>
       </c>
       <c r="C14" t="n">
-        <v>1.751289035705239</v>
+        <v>0.5140353713351179</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.1678077852183226</v>
+        <v>-0.9556904583592841</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>309.600302122372</v>
+        <v>292.1996334200827</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7473000042694343</v>
+        <v>-0.12173438877560201</v>
       </c>
       <c r="C15" t="n">
-        <v>1.1883921830462723</v>
+        <v>2.020683034592643</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.099099358086011</v>
+        <v>-0.8794495610756878</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>309.52034825471475</v>
+        <v>291.6710288694057</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8274545569693764</v>
+        <v>-0.6397046963658842</v>
       </c>
       <c r="C16" t="n">
-        <v>1.0111571548101044</v>
+        <v>2.705828456749212</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.9851561522629153</v>
+        <v>-0.9725517311330035</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>308.6958587272529</v>
+        <v>298.60495174497976</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2189016042977918</v>
+        <v>0.9576629846344038</v>
       </c>
       <c r="C17" t="n">
-        <v>1.2946244337559303</v>
+        <v>1.0382735506241954</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.8394428545328078</v>
+        <v>-0.9251666765831583</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>302.2199769228424</v>
+        <v>296.0724608438642</v>
       </c>
       <c r="B18" t="n">
-        <v>1.3870164564186627</v>
+        <v>0.9007938691605578</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5291515250634446</v>
+        <v>1.222719683453669</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.0128132509504522</v>
+        <v>-0.9521487204857259</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>305.6482740257182</v>
+        <v>287.5357953203879</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.24489995985650542</v>
+        <v>1.0067946903062293</v>
       </c>
       <c r="C19" t="n">
-        <v>2.1952192099380237</v>
+        <v>1.0928569760031672</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.122856188613905</v>
+        <v>-0.9520803148237666</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>310.37078383839787</v>
+        <v>293.6188153857888</v>
       </c>
       <c r="B20" t="n">
-        <v>1.1460855611827405</v>
+        <v>0.6636629358143716</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6834637633540719</v>
+        <v>1.3498694684916899</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.0359892008499743</v>
+        <v>-1.0298408584964194</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>301.2476301886066</v>
+        <v>309.600302122372</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05030216734361773</v>
+        <v>0.7473000042694343</v>
       </c>
       <c r="C21" t="n">
-        <v>1.860052902949617</v>
+        <v>1.1883921830462723</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.8080099992217223</v>
+        <v>-1.099099358086011</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>307.8110050602147</v>
+        <v>309.52034825471475</v>
       </c>
       <c r="B22" t="n">
-        <v>1.643962796132804</v>
+        <v>0.8274545569693764</v>
       </c>
       <c r="C22" t="n">
-        <v>0.20665930867708387</v>
+        <v>1.0111571548101044</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.0591985161745427</v>
+        <v>-0.9851561522629153</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>291.06094423844985</v>
+        <v>308.6958587272529</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7278635077361933</v>
+        <v>0.2189016042977918</v>
       </c>
       <c r="C23" t="n">
-        <v>1.1819838922824881</v>
+        <v>1.2946244337559303</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.7365257606571288</v>
+        <v>-0.8394428545328078</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>315.31913712288474</v>
+        <v>302.2199769228424</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.5851629779399159</v>
+        <v>1.3870164564186627</v>
       </c>
       <c r="C24" t="n">
-        <v>2.3256605512197677</v>
+        <v>0.5291515250634446</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.0575579847621412</v>
+        <v>-1.0128132509504522</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>292.7948545735774</v>
+        <v>305.6482740257182</v>
       </c>
       <c r="B25" t="n">
-        <v>1.35161675393368</v>
+        <v>-0.24489995985650542</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8701791785717177</v>
+        <v>2.1952192099380237</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.9814426157054813</v>
+        <v>-1.122856188613905</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>305.737995530468</v>
+        <v>310.37078383839787</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9419212249561484</v>
+        <v>1.1460855611827405</v>
       </c>
       <c r="C26" t="n">
-        <v>0.942977164869373</v>
+        <v>0.6834637633540719</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.0586216799624464</v>
+        <v>-1.0359892008499743</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>280.3589081213856</v>
+        <v>301.2476301886066</v>
       </c>
       <c r="B27" t="n">
-        <v>1.7213364258669668</v>
+        <v>0.05030216734361773</v>
       </c>
       <c r="C27" t="n">
-        <v>0.34553133504304195</v>
+        <v>1.860052902949617</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.7030230080894773</v>
+        <v>-0.8080099992217223</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>308.44658107668545</v>
+        <v>307.8110050602147</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.014095375190867218</v>
+        <v>1.643962796132804</v>
       </c>
       <c r="C28" t="n">
-        <v>1.9683802343607018</v>
+        <v>0.20665930867708387</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.0316785134202746</v>
+        <v>-1.0591985161745427</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>310.4735215261324</v>
+        <v>291.06094423844985</v>
       </c>
       <c r="B29" t="n">
-        <v>0.33736726352091545</v>
+        <v>0.7278635077361933</v>
       </c>
       <c r="C29" t="n">
-        <v>1.6068154410951443</v>
+        <v>1.1819838922824881</v>
       </c>
       <c r="D29" t="n">
-        <v>-1.1580752210832874</v>
+        <v>-0.7365257606571288</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>285.68795661530623</v>
+        <v>315.31913712288474</v>
       </c>
       <c r="B30" t="n">
-        <v>0.31723709744981676</v>
+        <v>-0.5851629779399159</v>
       </c>
       <c r="C30" t="n">
-        <v>1.8382235003351772</v>
+        <v>2.3256605512197677</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.954674038933373</v>
+        <v>-1.0575579847621412</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>288.37735641416253</v>
+        <v>305.737995530468</v>
       </c>
       <c r="B31" t="n">
-        <v>0.03776812507417266</v>
+        <v>0.9419212249561484</v>
       </c>
       <c r="C31" t="n">
-        <v>2.1700763422841916</v>
+        <v>0.942977164869373</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.9982618073852477</v>
+        <v>-1.0586216799624464</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>295.4681771464079</v>
+        <v>280.3589081213856</v>
       </c>
       <c r="B32" t="n">
-        <v>2.063624775270592</v>
+        <v>1.7213364258669668</v>
       </c>
       <c r="C32" t="n">
-        <v>0.08497497345539748</v>
+        <v>0.34553133504304195</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.0597826730846727</v>
+        <v>-0.7030230080894773</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>288.053366050151</v>
+        <v>308.44658107668545</v>
       </c>
       <c r="B33" t="n">
-        <v>2.3092074822005704</v>
+        <v>-0.014095375190867218</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.23714488444383663</v>
+        <v>1.9683802343607018</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.8851861332914651</v>
+        <v>-1.0316785134202746</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>305.2647786895428</v>
+        <v>310.4735215261324</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5443607268443849</v>
+        <v>0.33736726352091545</v>
       </c>
       <c r="C34" t="n">
-        <v>1.2647943227827825</v>
+        <v>1.6068154410951443</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.8105327806019206</v>
+        <v>-1.1580752210832874</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>302.7029518714028</v>
+        <v>285.68795661530623</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8464793698895304</v>
+        <v>0.31723709744981676</v>
       </c>
       <c r="C35" t="n">
-        <v>1.2023842192456686</v>
+        <v>1.8382235003351772</v>
       </c>
       <c r="D35" t="n">
-        <v>-1.119421162243573</v>
+        <v>-0.954674038933373</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>305.21381224264815</v>
+        <v>288.37735641416253</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.26340534161015267</v>
+        <v>0.03776812507417266</v>
       </c>
       <c r="C36" t="n">
-        <v>2.187970023560447</v>
+        <v>2.1700763422841916</v>
       </c>
       <c r="D36" t="n">
-        <v>-1.0611082791547273</v>
+        <v>-0.9982618073852477</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>299.57947706047156</v>
+        <v>295.4681771464079</v>
       </c>
       <c r="B37" t="n">
-        <v>0.46803132863774977</v>
+        <v>2.063624775270592</v>
       </c>
       <c r="C37" t="n">
-        <v>1.7515804969555853</v>
+        <v>0.08497497345539748</v>
       </c>
       <c r="D37" t="n">
-        <v>-1.1513065571518037</v>
+        <v>-1.0597826730846727</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>300.90423751222215</v>
+        <v>288.053366050151</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8411903109490262</v>
+        <v>2.3092074822005704</v>
       </c>
       <c r="C38" t="n">
-        <v>1.023844260821051</v>
+        <v>-0.23714488444383663</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.906691131415779</v>
+        <v>-0.8851861332914651</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>298.7265856191385</v>
+        <v>305.2647786895428</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5482775021784215</v>
+        <v>0.5443607268443849</v>
       </c>
       <c r="C39" t="n">
-        <v>1.485079288901671</v>
+        <v>1.2647943227827825</v>
       </c>
       <c r="D39" t="n">
-        <v>-1.017702011457112</v>
+        <v>-0.8105327806019206</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>287.53395634371776</v>
+        <v>302.7029518714028</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8248786687432534</v>
+        <v>0.8464793698895304</v>
       </c>
       <c r="C40" t="n">
-        <v>1.3475691589086465</v>
+        <v>1.2023842192456686</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.9096247211103932</v>
+        <v>-1.119421162243573</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>294.9011062632061</v>
+        <v>299.57947706047156</v>
       </c>
       <c r="B41" t="n">
-        <v>1.1990806621917796</v>
+        <v>0.46803132863774977</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8786208534284428</v>
+        <v>1.7515804969555853</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.9119433204392231</v>
+        <v>-1.1513065571518037</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>290.2521879952623</v>
+        <v>300.90423751222215</v>
       </c>
       <c r="B42" t="n">
-        <v>0.15066734735801826</v>
+        <v>0.8411903109490262</v>
       </c>
       <c r="C42" t="n">
-        <v>1.9150721339279448</v>
+        <v>1.023844260821051</v>
       </c>
       <c r="D42" t="n">
-        <v>-1.0332081708089544</v>
+        <v>-0.906691131415779</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>306.1769790217576</v>
+        <v>298.7265856191385</v>
       </c>
       <c r="B43" t="n">
-        <v>1.6918287871186795</v>
+        <v>0.5482775021784215</v>
       </c>
       <c r="C43" t="n">
-        <v>0.35409444705342746</v>
+        <v>1.485079288901671</v>
       </c>
       <c r="D43" t="n">
-        <v>-1.2121380205791894</v>
+        <v>-1.017702011457112</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>307.61643292003697</v>
+        <v>287.53395634371776</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.2826122442032716</v>
+        <v>0.8248786687432534</v>
       </c>
       <c r="C44" t="n">
-        <v>2.3582255463836006</v>
+        <v>1.3475691589086465</v>
       </c>
       <c r="D44" t="n">
-        <v>-1.107994105668943</v>
+        <v>-0.9096247211103932</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>297.71595319593115</v>
+        <v>294.9011062632061</v>
       </c>
       <c r="B45" t="n">
-        <v>2.800708980351743</v>
+        <v>1.1990806621917796</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.9027422768724623</v>
+        <v>0.8786208534284428</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.844849408258853</v>
+        <v>-0.9119433204392231</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>305.418613840249</v>
+        <v>290.2521879952623</v>
       </c>
       <c r="B46" t="n">
-        <v>2.0112416492924607</v>
+        <v>0.15066734735801826</v>
       </c>
       <c r="C46" t="n">
-        <v>0.012492762296360139</v>
+        <v>1.9150721339279448</v>
       </c>
       <c r="D46" t="n">
-        <v>-1.130242497414556</v>
+        <v>-1.0332081708089544</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>302.1727294170017</v>
+        <v>306.1769790217576</v>
       </c>
       <c r="B47" t="n">
-        <v>0.36244008345927703</v>
+        <v>1.6918287871186795</v>
       </c>
       <c r="C47" t="n">
-        <v>1.5811275234180766</v>
+        <v>0.35409444705342746</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.9860913046725124</v>
+        <v>-1.2121380205791894</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>312.6621240370247</v>
+        <v>307.61643292003697</v>
       </c>
       <c r="B48" t="n">
-        <v>0.11621393295207143</v>
+        <v>-0.2826122442032716</v>
       </c>
       <c r="C48" t="n">
-        <v>1.7796284509926676</v>
+        <v>2.3582255463836006</v>
       </c>
       <c r="D48" t="n">
-        <v>-1.0241734193181598</v>
+        <v>-1.107994105668943</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>277.5618553587014</v>
+        <v>297.71595319593115</v>
       </c>
       <c r="B49" t="n">
-        <v>1.2319734958671373</v>
+        <v>2.800708980351743</v>
       </c>
       <c r="C49" t="n">
-        <v>1.0509542628406952</v>
+        <v>-0.9027422768724623</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.9236021359294359</v>
+        <v>-0.844849408258853</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>314.1837475224481</v>
+        <v>305.418613840249</v>
       </c>
       <c r="B50" t="n">
-        <v>1.3821102002370558</v>
+        <v>2.0112416492924607</v>
       </c>
       <c r="C50" t="n">
-        <v>0.521690722927528</v>
+        <v>0.012492762296360139</v>
       </c>
       <c r="D50" t="n">
-        <v>-1.212873560849373</v>
+        <v>-1.130242497414556</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>288.0821129744738</v>
+        <v>312.6621240370247</v>
       </c>
       <c r="B51" t="n">
-        <v>1.502453540674542</v>
+        <v>0.11621393295207143</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5025749456157329</v>
+        <v>1.7796284509926676</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.8781432293536396</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>297.6583661286389</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.3170959006808469</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1.6689177448069124</v>
-      </c>
-      <c r="D52" t="n">
-        <v>-0.9378987098057087</v>
+        <v>-1.0241734193181598</v>
       </c>
     </row>
   </sheetData>

--- a/tp1/segunda_estimacion.xlsx
+++ b/tp1/segunda_estimacion.xlsx
@@ -90,702 +90,702 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>300.293684885452</v>
+        <v>299.940529013054</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3233190638951435</v>
+        <v>1.4095031402324674</v>
       </c>
       <c r="C2" t="n">
-        <v>1.6624557613255508</v>
+        <v>0.5561172811302014</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.9675974397886626</v>
+        <v>-0.9936714556644816</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>311.39812221331056</v>
+        <v>301.43192169504243</v>
       </c>
       <c r="B3" t="n">
-        <v>0.28594723034999286</v>
+        <v>1.2404515051455507</v>
       </c>
       <c r="C3" t="n">
-        <v>1.751289035705239</v>
+        <v>0.7491546095451838</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.1678077852183226</v>
+        <v>-0.9948464189210364</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>292.7948545735774</v>
+        <v>296.9835366226512</v>
       </c>
       <c r="B4" t="n">
-        <v>1.35161675393368</v>
+        <v>1.3745149862541863</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8701791785717177</v>
+        <v>0.7381984784448723</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.9814426157054813</v>
+        <v>-1.0347861019375835</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>305.21381224264815</v>
+        <v>290.09075697078214</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.26340534161015267</v>
+        <v>2.5720893203850403</v>
       </c>
       <c r="C5" t="n">
-        <v>2.187970023560447</v>
+        <v>-0.5257060439442099</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.0611082791547273</v>
+        <v>-0.9101955587551106</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>302.1727294170017</v>
+        <v>299.4298376758103</v>
       </c>
       <c r="B6" t="n">
-        <v>0.36244008345927703</v>
+        <v>0.4355684479693315</v>
       </c>
       <c r="C6" t="n">
-        <v>1.5811275234180766</v>
+        <v>1.5547986876184794</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.9860913046725124</v>
+        <v>-0.9660905350463647</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>277.5618553587014</v>
+        <v>300.23077247815365</v>
       </c>
       <c r="B7" t="n">
-        <v>1.2319734958671373</v>
+        <v>0.9457804916052897</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0509542628406952</v>
+        <v>0.89683252685394</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.9236021359294359</v>
+        <v>-0.9078055827290171</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>314.1837475224481</v>
+        <v>304.6369534894005</v>
       </c>
       <c r="B8" t="n">
-        <v>1.3821102002370558</v>
+        <v>-0.12377238833559488</v>
       </c>
       <c r="C8" t="n">
-        <v>0.521690722927528</v>
+        <v>2.0915147342372267</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.212873560849373</v>
+        <v>-0.9594398333902054</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>288.0821129744738</v>
+        <v>310.26275293514993</v>
       </c>
       <c r="B9" t="n">
-        <v>1.502453540674542</v>
+        <v>1.8140758271300708</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5025749456157329</v>
+        <v>0.09125745001251699</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.8781432293536396</v>
+        <v>-1.110029380910161</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>297.6583661286389</v>
+        <v>292.72850847983807</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3170959006808469</v>
+        <v>0.004049913617542382</v>
       </c>
       <c r="C10" t="n">
-        <v>1.6689177448069124</v>
+        <v>2.0759853986423487</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.9378987098057087</v>
+        <v>-1.0400309804775567</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>316.9425467382891</v>
+        <v>292.5250870432466</v>
       </c>
       <c r="B11" t="n">
-        <v>0.18994638676780898</v>
+        <v>2.2742353166035087</v>
       </c>
       <c r="C11" t="n">
-        <v>1.6848738356263764</v>
+        <v>-0.24938449257924616</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.2099141262514572</v>
+        <v>-0.9488487776952083</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>295.5860775974697</v>
+        <v>308.77653572257674</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2752142170491261</v>
+        <v>0.2876843418461425</v>
       </c>
       <c r="C12" t="n">
-        <v>1.4868076171388636</v>
+        <v>1.7294500936221238</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.7656614547570998</v>
+        <v>-1.091509030810652</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>291.448993716902</v>
+        <v>292.68763165928056</v>
       </c>
       <c r="B13" t="n">
-        <v>1.048550653750684</v>
+        <v>1.705915029300485</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9384400827797792</v>
+        <v>0.2754557949394899</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.8354457035977869</v>
+        <v>-0.837355115850051</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>302.5011978139768</v>
+        <v>312.0164818001247</v>
       </c>
       <c r="B14" t="n">
-        <v>1.2429933751484035</v>
+        <v>2.2327688930260017</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5140353713351179</v>
+        <v>-0.3612920555141509</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.9556904583592841</v>
+        <v>-1.0882009939218533</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>292.1996334200827</v>
+        <v>292.1788154657491</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.12173438877560201</v>
+        <v>1.0428199082623066</v>
       </c>
       <c r="C15" t="n">
-        <v>2.020683034592643</v>
+        <v>1.1504122873147986</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.8794495610756878</v>
+        <v>-1.0502715056695513</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>291.6710288694057</v>
+        <v>299.67326238101504</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.6397046963658842</v>
+        <v>2.8376785848695287</v>
       </c>
       <c r="C16" t="n">
-        <v>2.705828456749212</v>
+        <v>-0.8787242697601876</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.9725517311330035</v>
+        <v>-1.035396589253544</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>298.60495174497976</v>
+        <v>295.77085142959584</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9576629846344038</v>
+        <v>1.3428364166098994</v>
       </c>
       <c r="C17" t="n">
-        <v>1.0382735506241954</v>
+        <v>0.6525831597534612</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.9251666765831583</v>
+        <v>-0.8931350969676356</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>296.0724608438642</v>
+        <v>282.989610221368</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9007938691605578</v>
+        <v>1.1914411491348003</v>
       </c>
       <c r="C18" t="n">
-        <v>1.222719683453669</v>
+        <v>1.0684250655292928</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.9521487204857259</v>
+        <v>-0.9944377801338804</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>287.5357953203879</v>
+        <v>288.9043946003333</v>
       </c>
       <c r="B19" t="n">
-        <v>1.0067946903062293</v>
+        <v>-0.26536217937487555</v>
       </c>
       <c r="C19" t="n">
-        <v>1.0928569760031672</v>
+        <v>2.4029734427661795</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.9520803148237666</v>
+        <v>-0.9054710972476512</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>293.6188153857888</v>
+        <v>300.7247436176875</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6636629358143716</v>
+        <v>1.2566064926795952</v>
       </c>
       <c r="C20" t="n">
-        <v>1.3498694684916899</v>
+        <v>0.7954571749416381</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.0298408584964194</v>
+        <v>-0.9539737166514861</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>309.600302122372</v>
+        <v>313.93174140989385</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7473000042694343</v>
+        <v>0.8619880329104238</v>
       </c>
       <c r="C21" t="n">
-        <v>1.1883921830462723</v>
+        <v>0.9973906160232081</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.099099358086011</v>
+        <v>-1.0693064408299775</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>309.52034825471475</v>
+        <v>309.7762305249074</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8274545569693764</v>
+        <v>2.092508286747611</v>
       </c>
       <c r="C22" t="n">
-        <v>1.0111571548101044</v>
+        <v>-0.13427180172519165</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.9851561522629153</v>
+        <v>-1.2264979717735236</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>308.6958587272529</v>
+        <v>287.69183960454404</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2189016042977918</v>
+        <v>0.15012596485835522</v>
       </c>
       <c r="C23" t="n">
-        <v>1.2946244337559303</v>
+        <v>1.6949659480701156</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.8394428545328078</v>
+        <v>-0.7838268363144816</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>302.2199769228424</v>
+        <v>306.94142012368263</v>
       </c>
       <c r="B24" t="n">
-        <v>1.3870164564186627</v>
+        <v>0.9730502644874404</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5291515250634446</v>
+        <v>0.9392225649230409</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.0128132509504522</v>
+        <v>-1.0573006167329608</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>305.6482740257182</v>
+        <v>283.96889356785584</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.24489995985650542</v>
+        <v>0.6043207776222133</v>
       </c>
       <c r="C25" t="n">
-        <v>2.1952192099380237</v>
+        <v>1.4777438001215033</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.122856188613905</v>
+        <v>-0.8302792973151091</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>310.37078383839787</v>
+        <v>289.3470851482184</v>
       </c>
       <c r="B26" t="n">
-        <v>1.1460855611827405</v>
+        <v>0.29675274926272316</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6834637633540719</v>
+        <v>1.864491705605526</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.0359892008499743</v>
+        <v>-0.9278724417096958</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>301.2476301886066</v>
+        <v>278.7393841258393</v>
       </c>
       <c r="B27" t="n">
-        <v>0.05030216734361773</v>
+        <v>0.6456230020919262</v>
       </c>
       <c r="C27" t="n">
-        <v>1.860052902949617</v>
+        <v>1.5278576447958039</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.8080099992217223</v>
+        <v>-0.7370271185597472</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>307.8110050602147</v>
+        <v>297.48520785532855</v>
       </c>
       <c r="B28" t="n">
-        <v>1.643962796132804</v>
+        <v>1.588043607722297</v>
       </c>
       <c r="C28" t="n">
-        <v>0.20665930867708387</v>
+        <v>0.49208436066760725</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.0591985161745427</v>
+        <v>-0.9405539539181739</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>291.06094423844985</v>
+        <v>306.15631090652084</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7278635077361933</v>
+        <v>1.7515032604394536</v>
       </c>
       <c r="C29" t="n">
-        <v>1.1819838922824881</v>
+        <v>0.2535320462311036</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.7365257606571288</v>
+        <v>-1.2807282292140945</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>315.31913712288474</v>
+        <v>313.30695477367306</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.5851629779399159</v>
+        <v>1.3311728907005926</v>
       </c>
       <c r="C30" t="n">
-        <v>2.3256605512197677</v>
+        <v>0.588236525736535</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.0575579847621412</v>
+        <v>-1.1891033055625768</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>305.737995530468</v>
+        <v>301.7960548216439</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9419212249561484</v>
+        <v>-0.024530837874656913</v>
       </c>
       <c r="C31" t="n">
-        <v>0.942977164869373</v>
+        <v>1.722338419917105</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.0586216799624464</v>
+        <v>-1.0172044229446806</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>280.3589081213856</v>
+        <v>306.8083567522197</v>
       </c>
       <c r="B32" t="n">
-        <v>1.7213364258669668</v>
+        <v>-0.03945463974397633</v>
       </c>
       <c r="C32" t="n">
-        <v>0.34553133504304195</v>
+        <v>1.897546643657098</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.7030230080894773</v>
+        <v>-0.9589983995561255</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>308.44658107668545</v>
+        <v>298.3704229050194</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.014095375190867218</v>
+        <v>-0.16624766434287924</v>
       </c>
       <c r="C33" t="n">
-        <v>1.9683802343607018</v>
+        <v>2.078305070721308</v>
       </c>
       <c r="D33" t="n">
-        <v>-1.0316785134202746</v>
+        <v>-0.9001056194171553</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>310.4735215261324</v>
+        <v>283.94483340370505</v>
       </c>
       <c r="B34" t="n">
-        <v>0.33736726352091545</v>
+        <v>1.3824566500539042</v>
       </c>
       <c r="C34" t="n">
-        <v>1.6068154410951443</v>
+        <v>0.7188437356483885</v>
       </c>
       <c r="D34" t="n">
-        <v>-1.1580752210832874</v>
+        <v>-0.6903449074431157</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>285.68795661530623</v>
+        <v>288.13732162657</v>
       </c>
       <c r="B35" t="n">
-        <v>0.31723709744981676</v>
+        <v>1.2350808091185916</v>
       </c>
       <c r="C35" t="n">
-        <v>1.8382235003351772</v>
+        <v>0.9662277138830623</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.954674038933373</v>
+        <v>-0.8727102481102326</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>288.37735641416253</v>
+        <v>317.42172006862876</v>
       </c>
       <c r="B36" t="n">
-        <v>0.03776812507417266</v>
+        <v>1.9382564870940844</v>
       </c>
       <c r="C36" t="n">
-        <v>2.1700763422841916</v>
+        <v>0.11603807994625066</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.9982618073852477</v>
+        <v>-1.188210305987768</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>295.4681771464079</v>
+        <v>300.9068138617055</v>
       </c>
       <c r="B37" t="n">
-        <v>2.063624775270592</v>
+        <v>0.6982600710727174</v>
       </c>
       <c r="C37" t="n">
-        <v>0.08497497345539748</v>
+        <v>1.2376690952806133</v>
       </c>
       <c r="D37" t="n">
-        <v>-1.0597826730846727</v>
+        <v>-0.8260805022079061</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>288.053366050151</v>
+        <v>299.1518455123643</v>
       </c>
       <c r="B38" t="n">
-        <v>2.3092074822005704</v>
+        <v>-0.7118841776517919</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.23714488444383663</v>
+        <v>2.7550993525087795</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.8851861332914651</v>
+        <v>-0.9354076135433275</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>305.2647786895428</v>
+        <v>298.67791863551116</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5443607268443849</v>
+        <v>0.4795286343701578</v>
       </c>
       <c r="C39" t="n">
-        <v>1.2647943227827825</v>
+        <v>1.5362529773972933</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.8105327806019206</v>
+        <v>-1.0655713932630795</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>302.7029518714028</v>
+        <v>282.67538930758417</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8464793698895304</v>
+        <v>1.303591416611756</v>
       </c>
       <c r="C40" t="n">
-        <v>1.2023842192456686</v>
+        <v>0.7914997652593694</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.119421162243573</v>
+        <v>-0.877826207886722</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>299.57947706047156</v>
+        <v>312.2062453184315</v>
       </c>
       <c r="B41" t="n">
-        <v>0.46803132863774977</v>
+        <v>0.8658855257945696</v>
       </c>
       <c r="C41" t="n">
-        <v>1.7515804969555853</v>
+        <v>0.9269328777820289</v>
       </c>
       <c r="D41" t="n">
-        <v>-1.1513065571518037</v>
+        <v>-1.0719118237457872</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>300.90423751222215</v>
+        <v>298.73314792763705</v>
       </c>
       <c r="B42" t="n">
-        <v>0.8411903109490262</v>
+        <v>0.08868022105908233</v>
       </c>
       <c r="C42" t="n">
-        <v>1.023844260821051</v>
+        <v>1.9547340336751218</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.906691131415779</v>
+        <v>-1.0242388634563062</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>298.7265856191385</v>
+        <v>295.9844127346057</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5482775021784215</v>
+        <v>0.44367213254754984</v>
       </c>
       <c r="C43" t="n">
-        <v>1.485079288901671</v>
+        <v>1.5287571144072531</v>
       </c>
       <c r="D43" t="n">
-        <v>-1.017702011457112</v>
+        <v>-0.962260711908725</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>287.53395634371776</v>
+        <v>304.95315614512754</v>
       </c>
       <c r="B44" t="n">
-        <v>0.8248786687432534</v>
+        <v>0.08438665605997697</v>
       </c>
       <c r="C44" t="n">
-        <v>1.3475691589086465</v>
+        <v>1.9200998750257126</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.9096247211103932</v>
+        <v>-1.0265194148231558</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>294.9011062632061</v>
+        <v>299.24319514218604</v>
       </c>
       <c r="B45" t="n">
-        <v>1.1990806621917796</v>
+        <v>1.2749944814955985</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8786208534284428</v>
+        <v>0.7559444361242583</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.9119433204392231</v>
+        <v>-1.0533776812161688</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>290.2521879952623</v>
+        <v>307.0133988250044</v>
       </c>
       <c r="B46" t="n">
-        <v>0.15066734735801826</v>
+        <v>0.5902084707004769</v>
       </c>
       <c r="C46" t="n">
-        <v>1.9150721339279448</v>
+        <v>1.2781148841490297</v>
       </c>
       <c r="D46" t="n">
-        <v>-1.0332081708089544</v>
+        <v>-1.0489758422260602</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>306.1769790217576</v>
+        <v>314.0315377641882</v>
       </c>
       <c r="B47" t="n">
-        <v>1.6918287871186795</v>
+        <v>1.130116332453006</v>
       </c>
       <c r="C47" t="n">
-        <v>0.35409444705342746</v>
+        <v>0.8680874989061987</v>
       </c>
       <c r="D47" t="n">
-        <v>-1.2121380205791894</v>
+        <v>-1.1695800364504951</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>307.61643292003697</v>
+        <v>327.16940319991164</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.2826122442032716</v>
+        <v>1.9576990655640192</v>
       </c>
       <c r="C48" t="n">
-        <v>2.3582255463836006</v>
+        <v>-0.13272526457924436</v>
       </c>
       <c r="D48" t="n">
-        <v>-1.107994105668943</v>
+        <v>-1.1966193171844537</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>297.71595319593115</v>
+        <v>290.9568717040747</v>
       </c>
       <c r="B49" t="n">
-        <v>2.800708980351743</v>
+        <v>1.8344985075128424</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.9027422768724623</v>
+        <v>0.501006255477669</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.844849408258853</v>
+        <v>-1.1198596818207969</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>305.418613840249</v>
+        <v>299.60762570263387</v>
       </c>
       <c r="B50" t="n">
-        <v>2.0112416492924607</v>
+        <v>2.385596714269997</v>
       </c>
       <c r="C50" t="n">
-        <v>0.012492762296360139</v>
+        <v>-0.235886578428161</v>
       </c>
       <c r="D50" t="n">
-        <v>-1.130242497414556</v>
+        <v>-1.132838644423152</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>312.6621240370247</v>
+        <v>282.1575368862038</v>
       </c>
       <c r="B51" t="n">
-        <v>0.11621393295207143</v>
+        <v>1.5644739899148519</v>
       </c>
       <c r="C51" t="n">
-        <v>1.7796284509926676</v>
+        <v>0.4731790825981052</v>
       </c>
       <c r="D51" t="n">
-        <v>-1.0241734193181598</v>
+        <v>-0.739484497905449</v>
       </c>
     </row>
   </sheetData>
